--- a/project/결과 정리.xlsx
+++ b/project/결과 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\github\CPS\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DE3976-4E54-4C32-A38A-E58CAFACFDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10906488-2F78-457E-8D9E-185C6010D203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5FD6B82B-8D75-4A9F-8B26-CAC23BC6CAEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="15">
   <si>
     <t>볼트 가체결 설비 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20398530-4334-449F-AAE3-03ABFE948F97}">
-  <dimension ref="C9:AI27"/>
+  <dimension ref="C9:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1736,12 +1736,169 @@
         <v>1090.5999999999999</v>
       </c>
     </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="5">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="F35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>361</v>
+      </c>
+      <c r="G36" s="2">
+        <v>364</v>
+      </c>
+      <c r="H36" s="2">
+        <v>362</v>
+      </c>
+      <c r="I36" s="2">
+        <v>364</v>
+      </c>
+      <c r="J36" s="2">
+        <v>365</v>
+      </c>
+      <c r="K36" s="4">
+        <f>AVERAGE(F36:J36)</f>
+        <v>363.2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>361</v>
+      </c>
+      <c r="G37" s="2">
+        <v>365</v>
+      </c>
+      <c r="H37" s="2">
+        <v>362</v>
+      </c>
+      <c r="I37" s="2">
+        <v>365</v>
+      </c>
+      <c r="J37" s="2">
+        <v>365</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" ref="K37:K38" si="43">AVERAGE(F37:J37)</f>
+        <v>363.6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>268</v>
+      </c>
+      <c r="G38" s="2">
+        <v>328</v>
+      </c>
+      <c r="H38" s="2">
+        <v>361</v>
+      </c>
+      <c r="I38" s="2">
+        <v>342</v>
+      </c>
+      <c r="J38" s="2">
+        <v>327</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="43"/>
+        <v>325.2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <f>SUM(F36:F38)</f>
+        <v>990</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39" si="44">SUM(G36:G38)</f>
+        <v>1057</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39" si="45">SUM(H36:H38)</f>
+        <v>1085</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39" si="46">SUM(I36:I38)</f>
+        <v>1071</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J39" si="47">SUM(J36:J38)</f>
+        <v>1057</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" ref="K39" si="48">SUM(K36:K38)</f>
+        <v>1052</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="C9:D15"/>
     <mergeCell ref="C21:D27"/>
     <mergeCell ref="AD9:AI10"/>
     <mergeCell ref="AD21:AI22"/>
+    <mergeCell ref="C33:D39"/>
+    <mergeCell ref="F33:K34"/>
     <mergeCell ref="L9:Q10"/>
     <mergeCell ref="R9:W10"/>
     <mergeCell ref="X9:AC10"/>

--- a/project/결과 정리.xlsx
+++ b/project/결과 정리.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\github\CPS\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10906488-2F78-457E-8D9E-185C6010D203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84304CF5-169E-443C-A124-3338FE930AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5FD6B82B-8D75-4A9F-8B26-CAC23BC6CAEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{5FD6B82B-8D75-4A9F-8B26-CAC23BC6CAEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="17">
   <si>
     <t>볼트 가체결 설비 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,6 +96,14 @@
   </si>
   <si>
     <t>가공설비 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후공정 야근 포함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,10 +197,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,102 +521,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20398530-4334-449F-AAE3-03ABFE948F97}">
-  <dimension ref="C9:AI39"/>
+  <dimension ref="C9:AI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="22" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="28" width="12.875" bestFit="1" customWidth="1"/>
     <col min="30" max="34" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>32</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5" t="s">
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5" t="s">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
     </row>
     <row r="10" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
     </row>
     <row r="11" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
@@ -697,8 +708,8 @@
       </c>
     </row>
     <row r="12" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
@@ -799,8 +810,8 @@
       </c>
     </row>
     <row r="13" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
@@ -901,8 +912,8 @@
       </c>
     </row>
     <row r="14" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1003,8 +1014,8 @@
       </c>
     </row>
     <row r="15" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1039,7 @@
         <f t="shared" si="3"/>
         <v>966</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <f>SUM(K12:K14)</f>
         <v>1006.6</v>
       </c>
@@ -1052,7 +1063,7 @@
         <f t="shared" si="3"/>
         <v>1001</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <f t="shared" si="3"/>
         <v>1005.8</v>
       </c>
@@ -1076,7 +1087,7 @@
         <f t="shared" si="3"/>
         <v>1015</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <f t="shared" si="3"/>
         <v>1010</v>
       </c>
@@ -1100,7 +1111,7 @@
         <f t="shared" si="3"/>
         <v>1015</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC15" s="5">
         <f t="shared" si="3"/>
         <v>1003.8000000000001</v>
       </c>
@@ -1124,94 +1135,118 @@
         <f t="shared" ref="AH15" si="8">SUM(AH12:AH14)</f>
         <v>1092</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AI15" s="5">
         <f t="shared" ref="AI15" si="9">SUM(AI12:AI14)</f>
         <v>1090.8</v>
       </c>
     </row>
+    <row r="17" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f>_xlfn.STDEV.S(F12:J12)</f>
+        <v>1.0954451150103321</v>
+      </c>
+    </row>
+    <row r="18" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f t="shared" ref="L18:L20" si="10">_xlfn.STDEV.S(F13:J13)</f>
+        <v>1.7888543819998317</v>
+      </c>
+    </row>
+    <row r="19" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>28.740215726399828</v>
+      </c>
+    </row>
+    <row r="20" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>29.03101789465881</v>
+      </c>
+    </row>
     <row r="21" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>40</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="D21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5" t="s">
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5" t="s">
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
     </row>
     <row r="22" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
     </row>
     <row r="23" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="F23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1304,8 +1339,8 @@
       </c>
     </row>
     <row r="24" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1406,8 +1441,8 @@
       </c>
     </row>
     <row r="25" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1462,7 @@
         <v>365</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" ref="K25:K26" si="10">AVERAGE(F25:J25)</f>
+        <f t="shared" ref="K25:K26" si="11">AVERAGE(F25:J25)</f>
         <v>364.2</v>
       </c>
       <c r="L25" s="2">
@@ -1446,7 +1481,7 @@
         <v>364</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" ref="Q25:Q26" si="11">AVERAGE(L25:P25)</f>
+        <f t="shared" ref="Q25:Q26" si="12">AVERAGE(L25:P25)</f>
         <v>363.4</v>
       </c>
       <c r="R25" s="2">
@@ -1465,7 +1500,7 @@
         <v>362</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" ref="W25:W26" si="12">AVERAGE(R25:V25)</f>
+        <f t="shared" ref="W25:W26" si="13">AVERAGE(R25:V25)</f>
         <v>362.6</v>
       </c>
       <c r="X25" s="2">
@@ -1484,7 +1519,7 @@
         <v>364</v>
       </c>
       <c r="AC25" s="4">
-        <f t="shared" ref="AC25:AC26" si="13">AVERAGE(X25:AB25)</f>
+        <f t="shared" ref="AC25:AC26" si="14">AVERAGE(X25:AB25)</f>
         <v>363.8</v>
       </c>
       <c r="AD25" s="2">
@@ -1508,8 +1543,8 @@
       </c>
     </row>
     <row r="26" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1529,7 +1564,7 @@
         <v>327</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>343</v>
       </c>
       <c r="L26" s="2">
@@ -1548,7 +1583,7 @@
         <v>238</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>283.60000000000002</v>
       </c>
       <c r="R26" s="2">
@@ -1567,7 +1602,7 @@
         <v>291</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>285</v>
       </c>
       <c r="X26" s="2">
@@ -1586,7 +1621,7 @@
         <v>321</v>
       </c>
       <c r="AC26" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>335.8</v>
       </c>
       <c r="AD26" s="2">
@@ -1610,8 +1645,8 @@
       </c>
     </row>
     <row r="27" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1620,285 +1655,1372 @@
         <v>1085</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27" si="14">SUM(G24:G26)</f>
+        <f t="shared" ref="G27" si="15">SUM(G24:G26)</f>
         <v>1057</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27" si="15">SUM(H24:H26)</f>
+        <f t="shared" ref="H27" si="16">SUM(H24:H26)</f>
         <v>1085</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27" si="16">SUM(I24:I26)</f>
+        <f t="shared" ref="I27" si="17">SUM(I24:I26)</f>
         <v>1071</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27" si="17">SUM(J24:J26)</f>
+        <f t="shared" ref="J27" si="18">SUM(J24:J26)</f>
         <v>1057</v>
       </c>
-      <c r="K27" s="6">
-        <f t="shared" ref="K27" si="18">SUM(K24:K26)</f>
+      <c r="K27" s="5">
+        <f t="shared" ref="K27" si="19">SUM(K24:K26)</f>
         <v>1071</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27" si="19">SUM(L24:L26)</f>
+        <f t="shared" ref="L27" si="20">SUM(L24:L26)</f>
         <v>1029</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27" si="20">SUM(M24:M26)</f>
+        <f t="shared" ref="M27" si="21">SUM(M24:M26)</f>
         <v>1015</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27" si="21">SUM(N24:N26)</f>
+        <f t="shared" ref="N27" si="22">SUM(N24:N26)</f>
         <v>1015</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27" si="22">SUM(O24:O26)</f>
+        <f t="shared" ref="O27" si="23">SUM(O24:O26)</f>
         <v>1022</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="P27" si="23">SUM(P24:P26)</f>
+        <f t="shared" ref="P27" si="24">SUM(P24:P26)</f>
         <v>966</v>
       </c>
-      <c r="Q27" s="6">
-        <f t="shared" ref="Q27" si="24">SUM(Q24:Q26)</f>
+      <c r="Q27" s="5">
+        <f t="shared" ref="Q27" si="25">SUM(Q24:Q26)</f>
         <v>1009.4</v>
       </c>
       <c r="R27">
-        <f t="shared" ref="R27" si="25">SUM(R24:R26)</f>
+        <f t="shared" ref="R27" si="26">SUM(R24:R26)</f>
         <v>994</v>
       </c>
       <c r="S27">
-        <f t="shared" ref="S27" si="26">SUM(S24:S26)</f>
+        <f t="shared" ref="S27" si="27">SUM(S24:S26)</f>
         <v>1025</v>
       </c>
       <c r="T27">
-        <f t="shared" ref="T27" si="27">SUM(T24:T26)</f>
+        <f t="shared" ref="T27" si="28">SUM(T24:T26)</f>
         <v>1029</v>
       </c>
       <c r="U27">
-        <f t="shared" ref="U27" si="28">SUM(U24:U26)</f>
+        <f t="shared" ref="U27" si="29">SUM(U24:U26)</f>
         <v>987</v>
       </c>
       <c r="V27">
-        <f t="shared" ref="V27" si="29">SUM(V24:V26)</f>
+        <f t="shared" ref="V27" si="30">SUM(V24:V26)</f>
         <v>1015</v>
       </c>
-      <c r="W27" s="6">
-        <f t="shared" ref="W27" si="30">SUM(W24:W26)</f>
+      <c r="W27" s="5">
+        <f t="shared" ref="W27" si="31">SUM(W24:W26)</f>
         <v>1010</v>
       </c>
       <c r="X27">
-        <f t="shared" ref="X27" si="31">SUM(X24:X26)</f>
+        <f t="shared" ref="X27" si="32">SUM(X24:X26)</f>
         <v>1057</v>
       </c>
       <c r="Y27">
-        <f t="shared" ref="Y27" si="32">SUM(Y24:Y26)</f>
+        <f t="shared" ref="Y27" si="33">SUM(Y24:Y26)</f>
         <v>1085</v>
       </c>
       <c r="Z27">
-        <f t="shared" ref="Z27" si="33">SUM(Z24:Z26)</f>
+        <f t="shared" ref="Z27" si="34">SUM(Z24:Z26)</f>
         <v>1064</v>
       </c>
       <c r="AA27">
-        <f t="shared" ref="AA27" si="34">SUM(AA24:AA26)</f>
+        <f t="shared" ref="AA27" si="35">SUM(AA24:AA26)</f>
         <v>1064</v>
       </c>
       <c r="AB27">
-        <f t="shared" ref="AB27" si="35">SUM(AB24:AB26)</f>
+        <f t="shared" ref="AB27" si="36">SUM(AB24:AB26)</f>
         <v>1050</v>
       </c>
-      <c r="AC27" s="6">
-        <f t="shared" ref="AC27" si="36">SUM(AC24:AC26)</f>
+      <c r="AC27" s="5">
+        <f t="shared" ref="AC27" si="37">SUM(AC24:AC26)</f>
         <v>1064</v>
       </c>
       <c r="AD27">
-        <f t="shared" ref="AD27" si="37">SUM(AD24:AD26)</f>
+        <f t="shared" ref="AD27" si="38">SUM(AD24:AD26)</f>
         <v>1092</v>
       </c>
       <c r="AE27">
-        <f t="shared" ref="AE27" si="38">SUM(AE24:AE26)</f>
+        <f t="shared" ref="AE27" si="39">SUM(AE24:AE26)</f>
         <v>1092</v>
       </c>
       <c r="AF27">
-        <f t="shared" ref="AF27" si="39">SUM(AF24:AF26)</f>
+        <f t="shared" ref="AF27" si="40">SUM(AF24:AF26)</f>
         <v>1085</v>
       </c>
       <c r="AG27">
-        <f t="shared" ref="AG27" si="40">SUM(AG24:AG26)</f>
+        <f t="shared" ref="AG27" si="41">SUM(AG24:AG26)</f>
         <v>1092</v>
       </c>
       <c r="AH27">
-        <f t="shared" ref="AH27" si="41">SUM(AH24:AH26)</f>
+        <f t="shared" ref="AH27" si="42">SUM(AH24:AH26)</f>
         <v>1092</v>
       </c>
-      <c r="AI27" s="6">
-        <f t="shared" ref="AI27" si="42">SUM(AI24:AI26)</f>
+      <c r="AI27" s="5">
+        <f t="shared" ref="AI27" si="43">SUM(AI24:AI26)</f>
         <v>1090.5999999999999</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C33" s="5">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f>_xlfn.STDEV.S(F24:J24)</f>
+        <v>1.0954451150103321</v>
+      </c>
+    </row>
+    <row r="30" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f t="shared" ref="L30:L32" si="44">_xlfn.STDEV.S(F25:J25)</f>
+        <v>1.3038404810405297</v>
+      </c>
+    </row>
+    <row r="31" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f t="shared" si="44"/>
+        <v>15.827191791344413</v>
+      </c>
+    </row>
+    <row r="32" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f t="shared" si="44"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C37" s="6">
+        <v>36</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="F37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="F39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>362</v>
+      </c>
+      <c r="G40" s="2">
+        <v>362</v>
+      </c>
+      <c r="H40" s="2">
+        <v>364</v>
+      </c>
+      <c r="I40" s="2">
+        <v>362</v>
+      </c>
+      <c r="J40" s="2">
+        <v>362</v>
+      </c>
+      <c r="K40" s="4">
+        <f>AVERAGE(F40:J40)</f>
+        <v>362.4</v>
+      </c>
+      <c r="L40">
+        <f>_xlfn.STDEV.S(F40:J40)</f>
+        <v>0.89442719099991586</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>363</v>
+      </c>
+      <c r="G41" s="2">
+        <v>363</v>
+      </c>
+      <c r="H41" s="2">
+        <v>364</v>
+      </c>
+      <c r="I41" s="2">
+        <v>363</v>
+      </c>
+      <c r="J41" s="2">
+        <v>363</v>
+      </c>
+      <c r="K41" s="4">
+        <f>AVERAGE(F41:J41)</f>
+        <v>363.2</v>
+      </c>
+      <c r="L41">
+        <f>_xlfn.STDEV.S(F41:J41)</f>
+        <v>0.44721359549995793</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>329</v>
+      </c>
+      <c r="G42" s="2">
+        <v>290</v>
+      </c>
+      <c r="H42" s="2">
+        <v>308</v>
+      </c>
+      <c r="I42" s="2">
+        <v>302</v>
+      </c>
+      <c r="J42" s="2">
+        <v>318</v>
+      </c>
+      <c r="K42" s="4">
+        <f>AVERAGE(F42:J42)</f>
+        <v>309.39999999999998</v>
+      </c>
+      <c r="L42">
+        <f>_xlfn.STDEV.S(F42:J42)</f>
+        <v>14.926486525636232</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F40:F42)</f>
+        <v>1054</v>
+      </c>
+      <c r="G43">
+        <f>SUM(G40:G42)</f>
+        <v>1015</v>
+      </c>
+      <c r="H43">
+        <f>SUM(H40:H42)</f>
+        <v>1036</v>
+      </c>
+      <c r="I43">
+        <f>SUM(I40:I42)</f>
+        <v>1027</v>
+      </c>
+      <c r="J43">
+        <f>SUM(J40:J42)</f>
+        <v>1043</v>
+      </c>
+      <c r="K43" s="5">
+        <f>SUM(K40:K42)</f>
+        <v>1035</v>
+      </c>
+      <c r="L43">
+        <f>_xlfn.STDEV.S(F43:J43)</f>
+        <v>14.916433890176299</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C47" s="6">
+        <v>44</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="F49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>371</v>
+      </c>
+      <c r="G50" s="2">
+        <v>366</v>
+      </c>
+      <c r="H50" s="2">
+        <v>365</v>
+      </c>
+      <c r="I50" s="2">
+        <v>364</v>
+      </c>
+      <c r="J50" s="2">
+        <v>366</v>
+      </c>
+      <c r="K50" s="4">
+        <f>AVERAGE(F50:J50)</f>
+        <v>366.4</v>
+      </c>
+      <c r="L50">
+        <f>_xlfn.STDEV.S(F50:J50)</f>
+        <v>2.7018512172212592</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>366</v>
+      </c>
+      <c r="G51" s="2">
+        <v>363</v>
+      </c>
+      <c r="H51" s="2">
+        <v>363</v>
+      </c>
+      <c r="I51" s="2">
+        <v>365</v>
+      </c>
+      <c r="J51" s="2">
+        <v>363</v>
+      </c>
+      <c r="K51" s="4">
+        <f>AVERAGE(F51:J51)</f>
+        <v>364</v>
+      </c>
+      <c r="L51">
+        <f>_xlfn.STDEV.S(F51:J51)</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2">
+        <v>341</v>
+      </c>
+      <c r="G52" s="2">
+        <v>349</v>
+      </c>
+      <c r="H52" s="2">
+        <v>343</v>
+      </c>
+      <c r="I52" s="2">
+        <v>363</v>
+      </c>
+      <c r="J52" s="2">
+        <v>356</v>
+      </c>
+      <c r="K52" s="4">
+        <f>AVERAGE(F52:J52)</f>
+        <v>350.4</v>
+      </c>
+      <c r="L52">
+        <f>_xlfn.STDEV.S(F52:J52)</f>
+        <v>9.1542339930766463</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53">
+        <f>SUM(F50:F52)</f>
+        <v>1078</v>
+      </c>
+      <c r="G53">
+        <f>SUM(G50:G52)</f>
+        <v>1078</v>
+      </c>
+      <c r="H53">
+        <f>SUM(H50:H52)</f>
+        <v>1071</v>
+      </c>
+      <c r="I53">
+        <f>SUM(I50:I52)</f>
+        <v>1092</v>
+      </c>
+      <c r="J53">
+        <f>SUM(J50:J52)</f>
+        <v>1085</v>
+      </c>
+      <c r="K53" s="5">
+        <f>SUM(K50:K52)</f>
+        <v>1080.8</v>
+      </c>
+      <c r="L53">
+        <f>_xlfn.STDEV.S(F53:J53)</f>
+        <v>7.9812279756939661</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="U54" s="6">
         <v>32</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="F33" s="5" t="s">
+      <c r="V54" s="6"/>
+      <c r="X54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="F35" s="1" t="s">
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="X56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="Y56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="Z56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="AA56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="AB56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="AC56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="1" t="s">
+    <row r="57" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="2">
+      <c r="X57" s="2">
         <v>361</v>
       </c>
-      <c r="G36" s="2">
-        <v>364</v>
-      </c>
-      <c r="H36" s="2">
-        <v>362</v>
-      </c>
-      <c r="I36" s="2">
-        <v>364</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="Y57" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>362</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>364</v>
+      </c>
+      <c r="AB57" s="2">
         <v>365</v>
       </c>
-      <c r="K36" s="4">
-        <f>AVERAGE(F36:J36)</f>
+      <c r="AC57" s="4">
+        <f>AVERAGE(X57:AB57)</f>
         <v>363.2</v>
       </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="1" t="s">
+      <c r="AD57">
+        <f t="shared" ref="AD57:AD59" si="45">_xlfn.STDEV.S(X57:AB57)</f>
+        <v>1.6431676725154984</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C58" s="6">
+        <v>48</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="F58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="2">
+      <c r="X58" s="2">
         <v>361</v>
       </c>
-      <c r="G37" s="2">
+      <c r="Y58" s="2">
         <v>365</v>
       </c>
-      <c r="H37" s="2">
-        <v>362</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="Z58" s="2">
+        <v>362</v>
+      </c>
+      <c r="AA58" s="2">
         <v>365</v>
       </c>
-      <c r="J37" s="2">
+      <c r="AB58" s="2">
         <v>365</v>
       </c>
-      <c r="K37" s="4">
-        <f t="shared" ref="K37:K38" si="43">AVERAGE(F37:J37)</f>
+      <c r="AC58" s="4">
+        <f t="shared" ref="AC58:AC59" si="46">AVERAGE(X58:AB58)</f>
         <v>363.6</v>
       </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="1" t="s">
+      <c r="AD58">
+        <f t="shared" si="45"/>
+        <v>1.9493588689617929</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="2">
+      <c r="X59" s="2">
         <v>268</v>
       </c>
-      <c r="G38" s="2">
+      <c r="Y59" s="2">
         <v>328</v>
       </c>
-      <c r="H38" s="2">
+      <c r="Z59" s="2">
         <v>361</v>
       </c>
-      <c r="I38" s="2">
+      <c r="AA59" s="2">
         <v>342</v>
       </c>
-      <c r="J38" s="2">
+      <c r="AB59" s="2">
         <v>327</v>
       </c>
-      <c r="K38" s="4">
-        <f t="shared" si="43"/>
+      <c r="AC59" s="4">
+        <f t="shared" si="46"/>
         <v>325.2</v>
       </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="1" t="s">
+      <c r="AD59">
+        <f t="shared" si="45"/>
+        <v>34.809481466979655</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="F60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F39">
-        <f>SUM(F36:F38)</f>
+      <c r="X60">
+        <f>SUM(X57:X59)</f>
         <v>990</v>
       </c>
-      <c r="G39">
-        <f t="shared" ref="G39" si="44">SUM(G36:G38)</f>
+      <c r="Y60">
+        <f t="shared" ref="Y60" si="47">SUM(Y57:Y59)</f>
         <v>1057</v>
       </c>
-      <c r="H39">
-        <f t="shared" ref="H39" si="45">SUM(H36:H38)</f>
+      <c r="Z60">
+        <f t="shared" ref="Z60" si="48">SUM(Z57:Z59)</f>
         <v>1085</v>
       </c>
-      <c r="I39">
-        <f t="shared" ref="I39" si="46">SUM(I36:I38)</f>
+      <c r="AA60">
+        <f t="shared" ref="AA60" si="49">SUM(AA57:AA59)</f>
         <v>1071</v>
       </c>
-      <c r="J39">
-        <f t="shared" ref="J39" si="47">SUM(J36:J38)</f>
+      <c r="AB60">
+        <f t="shared" ref="AB60" si="50">SUM(AB57:AB59)</f>
         <v>1057</v>
       </c>
-      <c r="K39" s="6">
-        <f t="shared" ref="K39" si="48">SUM(K36:K38)</f>
+      <c r="AC60" s="5">
+        <f t="shared" ref="AC60" si="51">SUM(AC57:AC59)</f>
         <v>1052</v>
       </c>
+      <c r="AD60">
+        <f>_xlfn.STDEV.S(X60:AB60)</f>
+        <v>36.551333764994133</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>369</v>
+      </c>
+      <c r="G61" s="2">
+        <v>369</v>
+      </c>
+      <c r="H61" s="2">
+        <v>367</v>
+      </c>
+      <c r="I61" s="2">
+        <v>368</v>
+      </c>
+      <c r="J61" s="2">
+        <v>369</v>
+      </c>
+      <c r="K61" s="4">
+        <f>AVERAGE(F61:J61)</f>
+        <v>368.4</v>
+      </c>
+      <c r="L61">
+        <f>_xlfn.STDEV.S(F61:J61)</f>
+        <v>0.89442719099991586</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2">
+        <v>368</v>
+      </c>
+      <c r="G62" s="2">
+        <v>367</v>
+      </c>
+      <c r="H62" s="2">
+        <v>370</v>
+      </c>
+      <c r="I62" s="2">
+        <v>368</v>
+      </c>
+      <c r="J62" s="2">
+        <v>370</v>
+      </c>
+      <c r="K62" s="4">
+        <f>AVERAGE(F62:J62)</f>
+        <v>368.6</v>
+      </c>
+      <c r="L62">
+        <f>_xlfn.STDEV.S(F62:J62)</f>
+        <v>1.3416407864998738</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2">
+        <v>362</v>
+      </c>
+      <c r="G63" s="2">
+        <v>363</v>
+      </c>
+      <c r="H63" s="2">
+        <v>362</v>
+      </c>
+      <c r="I63" s="2">
+        <v>363</v>
+      </c>
+      <c r="J63" s="2">
+        <v>360</v>
+      </c>
+      <c r="K63" s="4">
+        <f>AVERAGE(F63:J63)</f>
+        <v>362</v>
+      </c>
+      <c r="L63">
+        <f>_xlfn.STDEV.S(F63:J63)</f>
+        <v>1.2247448713915889</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64">
+        <f>SUM(F61:F63)</f>
+        <v>1099</v>
+      </c>
+      <c r="G64">
+        <f>SUM(G61:G63)</f>
+        <v>1099</v>
+      </c>
+      <c r="H64">
+        <f>SUM(H61:H63)</f>
+        <v>1099</v>
+      </c>
+      <c r="I64">
+        <f>SUM(I61:I63)</f>
+        <v>1099</v>
+      </c>
+      <c r="J64">
+        <f>SUM(J61:J63)</f>
+        <v>1099</v>
+      </c>
+      <c r="K64" s="5">
+        <f>SUM(K61:K63)</f>
+        <v>1099</v>
+      </c>
+      <c r="L64">
+        <f>_xlfn.STDEV.S(F64:J64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C69" s="6">
+        <v>52</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="P69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="P70" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q70" s="6"/>
+      <c r="S70" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+    </row>
+    <row r="71" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="F71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+    </row>
+    <row r="72" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>373</v>
+      </c>
+      <c r="G72" s="2">
+        <v>372</v>
+      </c>
+      <c r="H72" s="2">
+        <v>371</v>
+      </c>
+      <c r="I72" s="2">
+        <v>368</v>
+      </c>
+      <c r="J72" s="2">
+        <v>372</v>
+      </c>
+      <c r="K72" s="4">
+        <f>AVERAGE(F72:J72)</f>
+        <v>371.2</v>
+      </c>
+      <c r="L72">
+        <f>_xlfn.STDEV.S(F72:J72)</f>
+        <v>1.9235384061671346</v>
+      </c>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="S72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>369</v>
+      </c>
+      <c r="G73" s="2">
+        <v>370</v>
+      </c>
+      <c r="H73" s="2">
+        <v>369</v>
+      </c>
+      <c r="I73" s="2">
+        <v>374</v>
+      </c>
+      <c r="J73" s="2">
+        <v>371</v>
+      </c>
+      <c r="K73" s="4">
+        <f>AVERAGE(F73:J73)</f>
+        <v>370.6</v>
+      </c>
+      <c r="L73">
+        <f>_xlfn.STDEV.S(F73:J73)</f>
+        <v>2.0736441353327724</v>
+      </c>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S73" s="2">
+        <v>361</v>
+      </c>
+      <c r="T73" s="2">
+        <v>361</v>
+      </c>
+      <c r="U73" s="2">
+        <v>361</v>
+      </c>
+      <c r="V73" s="2">
+        <v>361</v>
+      </c>
+      <c r="W73" s="2">
+        <v>361</v>
+      </c>
+      <c r="X73" s="4">
+        <f>AVERAGE(S73:W73)</f>
+        <v>361</v>
+      </c>
+      <c r="Y73">
+        <f>_xlfn.STDEV.S(S73:W73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2">
+        <v>364</v>
+      </c>
+      <c r="G74" s="2">
+        <v>364</v>
+      </c>
+      <c r="H74" s="2">
+        <v>366</v>
+      </c>
+      <c r="I74" s="2">
+        <v>364</v>
+      </c>
+      <c r="J74" s="2">
+        <v>363</v>
+      </c>
+      <c r="K74" s="4">
+        <f>AVERAGE(F74:J74)</f>
+        <v>364.2</v>
+      </c>
+      <c r="L74">
+        <f>_xlfn.STDEV.S(F74:J74)</f>
+        <v>1.0954451150103321</v>
+      </c>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S74" s="2">
+        <v>361</v>
+      </c>
+      <c r="T74" s="2">
+        <v>361</v>
+      </c>
+      <c r="U74" s="2">
+        <v>361</v>
+      </c>
+      <c r="V74" s="2">
+        <v>361</v>
+      </c>
+      <c r="W74" s="2">
+        <v>361</v>
+      </c>
+      <c r="X74" s="4">
+        <f>AVERAGE(S74:W74)</f>
+        <v>361</v>
+      </c>
+      <c r="Y74">
+        <f>_xlfn.STDEV.S(S74:W74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75">
+        <f>SUM(F72:F74)</f>
+        <v>1106</v>
+      </c>
+      <c r="G75">
+        <f>SUM(G72:G74)</f>
+        <v>1106</v>
+      </c>
+      <c r="H75">
+        <f>SUM(H72:H74)</f>
+        <v>1106</v>
+      </c>
+      <c r="I75">
+        <f>SUM(I72:I74)</f>
+        <v>1106</v>
+      </c>
+      <c r="J75">
+        <f>SUM(J72:J74)</f>
+        <v>1106</v>
+      </c>
+      <c r="K75" s="5">
+        <f>SUM(K72:K74)</f>
+        <v>1106</v>
+      </c>
+      <c r="L75">
+        <f>_xlfn.STDEV.S(F75:J75)</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S75" s="2">
+        <v>239</v>
+      </c>
+      <c r="T75" s="2">
+        <v>254</v>
+      </c>
+      <c r="U75" s="2">
+        <v>221</v>
+      </c>
+      <c r="V75" s="2">
+        <v>238</v>
+      </c>
+      <c r="W75" s="2">
+        <v>240</v>
+      </c>
+      <c r="X75" s="4">
+        <f>AVERAGE(S75:W75)</f>
+        <v>238.4</v>
+      </c>
+      <c r="Y75">
+        <f>_xlfn.STDEV.S(S75:W75)</f>
+        <v>11.717508267545622</v>
+      </c>
+    </row>
+    <row r="76" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S76">
+        <f>SUM(S73:S75)</f>
+        <v>961</v>
+      </c>
+      <c r="T76">
+        <f>SUM(T73:T75)</f>
+        <v>976</v>
+      </c>
+      <c r="U76">
+        <f>SUM(U73:U75)</f>
+        <v>943</v>
+      </c>
+      <c r="V76">
+        <f>SUM(V73:V75)</f>
+        <v>960</v>
+      </c>
+      <c r="W76">
+        <f>SUM(W73:W75)</f>
+        <v>962</v>
+      </c>
+      <c r="X76" s="5">
+        <f>SUM(X73:X75)</f>
+        <v>960.4</v>
+      </c>
+      <c r="Y76">
+        <f>_xlfn.STDEV.S(S76:W76)</f>
+        <v>11.717508267545622</v>
+      </c>
+    </row>
+    <row r="77" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="1"/>
+      <c r="P80" s="6">
+        <v>36</v>
+      </c>
+      <c r="Q80" s="6"/>
+      <c r="S80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="1"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="1"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="S82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="1"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S83" s="2">
+        <v>361</v>
+      </c>
+      <c r="T83" s="2">
+        <v>361</v>
+      </c>
+      <c r="U83" s="2">
+        <v>361</v>
+      </c>
+      <c r="V83" s="2">
+        <v>361</v>
+      </c>
+      <c r="W83" s="2">
+        <v>361</v>
+      </c>
+      <c r="X83" s="4">
+        <f>AVERAGE(S83:W83)</f>
+        <v>361</v>
+      </c>
+      <c r="Y83">
+        <f>_xlfn.STDEV.S(S83:W83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S84" s="2">
+        <v>361</v>
+      </c>
+      <c r="T84" s="2">
+        <v>361</v>
+      </c>
+      <c r="U84" s="2">
+        <v>361</v>
+      </c>
+      <c r="V84" s="2">
+        <v>361</v>
+      </c>
+      <c r="W84" s="2">
+        <v>361</v>
+      </c>
+      <c r="X84" s="4">
+        <f>AVERAGE(S84:W84)</f>
+        <v>361</v>
+      </c>
+      <c r="Y84">
+        <f>_xlfn.STDEV.S(S84:W84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S85" s="2">
+        <v>264</v>
+      </c>
+      <c r="T85" s="2">
+        <v>286</v>
+      </c>
+      <c r="U85" s="2">
+        <v>326</v>
+      </c>
+      <c r="V85" s="2">
+        <v>300</v>
+      </c>
+      <c r="W85" s="2">
+        <v>273</v>
+      </c>
+      <c r="X85" s="4">
+        <f>AVERAGE(S85:W85)</f>
+        <v>289.8</v>
+      </c>
+      <c r="Y85">
+        <f>_xlfn.STDEV.S(S85:W85)</f>
+        <v>24.37621791829077</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S86">
+        <f>SUM(S83:S85)</f>
+        <v>986</v>
+      </c>
+      <c r="T86">
+        <f>SUM(T83:T85)</f>
+        <v>1008</v>
+      </c>
+      <c r="U86">
+        <f>SUM(U83:U85)</f>
+        <v>1048</v>
+      </c>
+      <c r="V86">
+        <f>SUM(V83:V85)</f>
+        <v>1022</v>
+      </c>
+      <c r="W86">
+        <f>SUM(W83:W85)</f>
+        <v>995</v>
+      </c>
+      <c r="X86" s="5">
+        <f>SUM(X83:X85)</f>
+        <v>1011.8</v>
+      </c>
+      <c r="Y86">
+        <f>_xlfn.STDEV.S(S86:W86)</f>
+        <v>24.37621791829077</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="26">
+    <mergeCell ref="C58:D64"/>
+    <mergeCell ref="F58:K59"/>
+    <mergeCell ref="C69:D75"/>
+    <mergeCell ref="F69:K70"/>
+    <mergeCell ref="C37:D43"/>
+    <mergeCell ref="F37:K38"/>
+    <mergeCell ref="C47:D53"/>
+    <mergeCell ref="F47:K48"/>
+    <mergeCell ref="P70:Q76"/>
+    <mergeCell ref="S70:X71"/>
+    <mergeCell ref="P80:Q86"/>
+    <mergeCell ref="S80:X81"/>
     <mergeCell ref="C9:D15"/>
     <mergeCell ref="C21:D27"/>
     <mergeCell ref="AD9:AI10"/>
     <mergeCell ref="AD21:AI22"/>
-    <mergeCell ref="C33:D39"/>
-    <mergeCell ref="F33:K34"/>
+    <mergeCell ref="U54:V60"/>
+    <mergeCell ref="X54:AC55"/>
     <mergeCell ref="L9:Q10"/>
     <mergeCell ref="R9:W10"/>
     <mergeCell ref="X9:AC10"/>
@@ -1911,4 +3033,187 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7345A55D-201E-4E14-8D20-3ED3A9476EBA}">
+  <dimension ref="C3:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="10" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>364</v>
+      </c>
+      <c r="G10" s="2">
+        <v>362</v>
+      </c>
+      <c r="H10" s="2">
+        <v>362</v>
+      </c>
+      <c r="I10" s="2">
+        <v>364</v>
+      </c>
+      <c r="J10" s="2">
+        <v>362</v>
+      </c>
+      <c r="K10" s="4">
+        <f>AVERAGE(F10:J10)</f>
+        <v>362.8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>362</v>
+      </c>
+      <c r="G11" s="2">
+        <v>366</v>
+      </c>
+      <c r="H11" s="2">
+        <v>362</v>
+      </c>
+      <c r="I11" s="2">
+        <v>362</v>
+      </c>
+      <c r="J11" s="2">
+        <v>362</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" ref="K11:K12" si="0">AVERAGE(F11:J11)</f>
+        <v>362.8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>268</v>
+      </c>
+      <c r="G12" s="2">
+        <v>294</v>
+      </c>
+      <c r="H12" s="2">
+        <v>319</v>
+      </c>
+      <c r="I12" s="2">
+        <v>282</v>
+      </c>
+      <c r="J12" s="2">
+        <v>242</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F10:F12)</f>
+        <v>994</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:K13" si="1">SUM(G10:G12)</f>
+        <v>1022</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1043</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>966</v>
+      </c>
+      <c r="K13" s="5">
+        <f>SUM(K10:K12)</f>
+        <v>1006.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:D13"/>
+    <mergeCell ref="F7:K8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>